--- a/config_4.13/lwgp_config_server.xlsx
+++ b/config_4.13/lwgp_config_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_vivo11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>id|行号</t>
   </si>
@@ -66,35 +66,39 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>level2|很喜欢</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>level3|非常喜欢</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>level|喜欢等级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,100,100,100,0,0,0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,100,10,10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,100,100,100,100,100,100,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0,0,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>level1|喜欢</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>level2|很喜欢</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>level3|非常喜欢</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>level|喜欢等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,100,100,100,0,0,0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,100,10,10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,100,100,100,100,100,100,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,0,0,0,</t>
+    <t>10,10,10,10,10,10,10</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +218,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -259,9 +263,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
@@ -546,17 +547,17 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8:F8"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="23.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26" style="4" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -570,13 +571,13 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -593,10 +594,10 @@
         <v>20000</v>
       </c>
       <c r="E2" s="13">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="F2" s="13">
-        <v>200000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -613,10 +614,10 @@
         <v>20000</v>
       </c>
       <c r="E3" s="13">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="F3" s="13">
-        <v>400000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -633,10 +634,10 @@
         <v>20000</v>
       </c>
       <c r="E4" s="13">
+        <v>50000</v>
+      </c>
+      <c r="F4" s="13">
         <v>100000</v>
-      </c>
-      <c r="F4" s="13">
-        <v>400000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -653,10 +654,10 @@
         <v>20000</v>
       </c>
       <c r="E5" s="13">
+        <v>50000</v>
+      </c>
+      <c r="F5" s="13">
         <v>100000</v>
-      </c>
-      <c r="F5" s="13">
-        <v>400000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -672,11 +673,11 @@
       <c r="D6" s="10">
         <v>20000</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="13">
+        <v>100000</v>
+      </c>
+      <c r="F6" s="13">
         <v>200000</v>
-      </c>
-      <c r="F6" s="15">
-        <v>800000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -692,11 +693,11 @@
       <c r="D7" s="4">
         <v>20000</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="13">
+        <v>100000</v>
+      </c>
+      <c r="F7" s="13">
         <v>200000</v>
-      </c>
-      <c r="F7" s="15">
-        <v>800000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -712,11 +713,11 @@
       <c r="D8" s="4">
         <v>20000</v>
       </c>
-      <c r="E8" s="10">
-        <v>200000</v>
-      </c>
-      <c r="F8" s="15">
-        <v>800000</v>
+      <c r="E8" s="13">
+        <v>100000</v>
+      </c>
+      <c r="F8" s="13">
+        <v>400000</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -1033,17 +1034,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="23.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26" style="4" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -1057,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1083,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1183,7 +1184,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1203,7 +1204,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -1222,8 +1223,8 @@
       <c r="E9" s="8">
         <v>7</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>14</v>
+      <c r="F9" s="15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -1242,8 +1243,8 @@
       <c r="E10" s="8">
         <v>7</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>14</v>
+      <c r="F10" s="15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -1283,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
